--- a/medicine/Sexualité et sexologie/Rêves_pornos/Rêves_pornos.xlsx
+++ b/medicine/Sexualité et sexologie/Rêves_pornos/Rêves_pornos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%AAves_pornos</t>
+          <t>Rêves_pornos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rêves pornos ou Le Dictionnaire de l'érotisme est un film français de Max Pécas sorti en 1975[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rêves pornos ou Le Dictionnaire de l'érotisme est un film français de Max Pécas sorti en 1975.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%AAves_pornos</t>
+          <t>Rêves_pornos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une jeune femme parcourt un dictionnaire. Certains mots (caresse, orgie...) sont plus évocateurs que d'autres[1]...
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une jeune femme parcourt un dictionnaire. Certains mots (caresse, orgie...) sont plus évocateurs que d'autres...
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%AAves_pornos</t>
+          <t>Rêves_pornos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rêves pornos est constitué, pour l'essentiel, d'une compilation de scènes érotiques extraites de films tournés par Max Pécas entre  1965 et 1974. Le dictionnaire sert de fil rouge à ce film rétrospective. Sorti quelques semaines après l'arrivée sur les écrans français du premier film hardcore, des séquences de sexe sont ajoutées pour répondre à la nouvelle demande des distributeurs et du public[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rêves pornos est constitué, pour l'essentiel, d'une compilation de scènes érotiques extraites de films tournés par Max Pécas entre  1965 et 1974. Le dictionnaire sert de fil rouge à ce film rétrospective. Sorti quelques semaines après l'arrivée sur les écrans français du premier film hardcore, des séquences de sexe sont ajoutées pour répondre à la nouvelle demande des distributeurs et du public.
 Le film reprend entre autres des extraits de Espions à l'affût, la Peur et l'Amour, la Nuit la plus chaude, Claude et Greta, Je suis une nymphomane, Je suis frigide... pourquoi ?, Club privé pour couples avertis...
 </t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%AAves_pornos</t>
+          <t>Rêves_pornos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Titre : Rêves Pornos ou  Le Dictionnaire de l'érotisme[2].
-Réalisation : Max Pécas (sous le nom d'Octave Jackson)[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Titre : Rêves Pornos ou  Le Dictionnaire de l'érotisme.
+Réalisation : Max Pécas (sous le nom d'Octave Jackson)
 Scénario : Max Pécas
 Producteur : Max Pécas
 Société de production : Les Films du Griffon
@@ -590,7 +608,7 @@
 Durée : 86 minutes
 Dates de sortie :
  France : 11 juin 1975
-Interdiction aux moins de 18 ans à sa sortie en salles en France[3].</t>
+Interdiction aux moins de 18 ans à sa sortie en salles en France.</t>
         </is>
       </c>
     </row>
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%AAves_pornos</t>
+          <t>Rêves_pornos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,6 +637,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
